--- a/src/main/webapp/export/export_template.xlsx
+++ b/src/main/webapp/export/export_template.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="25808"/>
+  <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shudi/Documents/workspace/git-workspace/Appointment/src/main/webapp/export/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19830" windowHeight="8370"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="19840" windowHeight="8380"/>
   </bookViews>
   <sheets>
     <sheet name="2015-3-10全息表" sheetId="1" r:id="rId1"/>
@@ -17,12 +22,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2014秋档案版'!$A$1:$DU$211</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2015-3-10全息表'!$A$1:$AA$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3057" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3049" uniqueCount="1088">
   <si>
     <t>姓名</t>
   </si>
@@ -4120,14 +4130,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>***</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王二</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>目标</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4139,11 +4141,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -4343,13 +4345,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -4728,6 +4730,27 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4769,27 +4792,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5210,38 +5212,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="12"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="24.375" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="26.5" customWidth="1"/>
-    <col min="11" max="11" width="11.75" customWidth="1"/>
-    <col min="12" max="12" width="19.25" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" style="18" customWidth="1"/>
     <col min="13" max="13" width="11.5" customWidth="1"/>
     <col min="14" max="14" width="28" style="44" customWidth="1"/>
-    <col min="15" max="15" width="27.75" customWidth="1"/>
+    <col min="15" max="15" width="27.6640625" customWidth="1"/>
     <col min="16" max="16" width="18.5" customWidth="1"/>
-    <col min="17" max="17" width="12.875" customWidth="1"/>
-    <col min="18" max="18" width="11.625" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
     <col min="24" max="24" width="10" customWidth="1"/>
-    <col min="25" max="25" width="10.875" customWidth="1"/>
+    <col min="25" max="25" width="10.83203125" customWidth="1"/>
     <col min="31" max="31" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:31" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5251,7 +5253,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="81" t="s">
         <v>52</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -5269,7 +5271,7 @@
       <c r="I1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="85" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -5278,19 +5280,19 @@
       <c r="L1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="96" t="s">
+      <c r="M1" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="100" t="s">
+      <c r="N1" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="101" t="s">
+      <c r="O1" s="87" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>1089</v>
-      </c>
-      <c r="Q1" s="96" t="s">
+        <v>1087</v>
+      </c>
+      <c r="Q1" s="82" t="s">
         <v>14</v>
       </c>
       <c r="R1" s="8" t="s">
@@ -5299,34 +5301,34 @@
       <c r="S1" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="T1" s="97" t="s">
-        <v>1088</v>
-      </c>
-      <c r="U1" s="97" t="s">
+      <c r="T1" s="83" t="s">
+        <v>1086</v>
+      </c>
+      <c r="U1" s="83" t="s">
         <v>296</v>
       </c>
-      <c r="V1" s="97" t="s">
+      <c r="V1" s="83" t="s">
         <v>297</v>
       </c>
-      <c r="W1" s="98" t="s">
+      <c r="W1" s="84" t="s">
         <v>298</v>
       </c>
-      <c r="X1" s="98" t="s">
+      <c r="X1" s="84" t="s">
         <v>299</v>
       </c>
-      <c r="Y1" s="97" t="s">
+      <c r="Y1" s="83" t="s">
         <v>300</v>
       </c>
-      <c r="Z1" s="98" t="s">
+      <c r="Z1" s="84" t="s">
         <v>302</v>
       </c>
-      <c r="AA1" s="98" t="s">
+      <c r="AA1" s="84" t="s">
         <v>301</v>
       </c>
-      <c r="AB1" s="98" t="s">
+      <c r="AB1" s="84" t="s">
         <v>303</v>
       </c>
-      <c r="AC1" s="97" t="s">
+      <c r="AC1" s="83" t="s">
         <v>304</v>
       </c>
       <c r="AD1" s="8" t="s">
@@ -5336,310 +5338,279 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2012310409</v>
-      </c>
-      <c r="D2" s="7">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="3">
-        <v>13381448284</v>
-      </c>
-      <c r="H2" t="s">
-        <v>721</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>1087</v>
-      </c>
-      <c r="L2" s="17">
-        <v>42061</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B74" s="3"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B75" s="3"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B76" s="3"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B77" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA2">
-    <filterColumn colId="10"/>
-  </autoFilter>
+  <autoFilter ref="A1:AA2"/>
   <sortState ref="A2:AI283">
     <sortCondition ref="L1"/>
   </sortState>
@@ -5668,26 +5639,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DU211"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="I220" sqref="I220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="3" max="3" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="5.25" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
-    <col min="9" max="9" width="17.75" customWidth="1"/>
-    <col min="13" max="13" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16.5" customHeight="1">
+    <row r="1" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>843</v>
       </c>
@@ -5791,7 +5762,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="31" customFormat="1">
+    <row r="2" spans="1:34" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="31">
         <v>201414001</v>
       </c>
@@ -5877,7 +5848,7 @@
       </c>
       <c r="AD2" s="32"/>
     </row>
-    <row r="3" spans="1:34" s="1" customFormat="1">
+    <row r="3" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>201414002</v>
       </c>
@@ -5924,7 +5895,7 @@
       <c r="U3" s="6"/>
       <c r="AD3" s="3"/>
     </row>
-    <row r="4" spans="1:34" s="1" customFormat="1">
+    <row r="4" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>201414003</v>
       </c>
@@ -5971,7 +5942,7 @@
       <c r="U4" s="6"/>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" spans="1:34" s="1" customFormat="1" ht="14.25">
+    <row r="5" spans="1:34" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>201414004</v>
       </c>
@@ -6016,7 +5987,7 @@
       <c r="U5" s="6"/>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" spans="1:34" s="1" customFormat="1">
+    <row r="6" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>201414005</v>
       </c>
@@ -6103,7 +6074,7 @@
       </c>
       <c r="AD6" s="3"/>
     </row>
-    <row r="7" spans="1:34" s="1" customFormat="1" ht="14.25">
+    <row r="7" spans="1:34" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>201414006</v>
       </c>
@@ -6150,7 +6121,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="3"/>
     </row>
-    <row r="8" spans="1:34" s="1" customFormat="1">
+    <row r="8" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>201414007</v>
       </c>
@@ -6233,7 +6204,7 @@
       </c>
       <c r="AD8" s="3"/>
     </row>
-    <row r="9" spans="1:34" s="1" customFormat="1">
+    <row r="9" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>201414008</v>
       </c>
@@ -6323,7 +6294,7 @@
       </c>
       <c r="AD9" s="3"/>
     </row>
-    <row r="10" spans="1:34" s="1" customFormat="1">
+    <row r="10" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>201414009</v>
       </c>
@@ -6379,7 +6350,7 @@
       <c r="U10" s="6"/>
       <c r="AD10" s="3"/>
     </row>
-    <row r="11" spans="1:34" s="1" customFormat="1">
+    <row r="11" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>201414010</v>
       </c>
@@ -6473,7 +6444,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="1" customFormat="1">
+    <row r="12" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>201414011</v>
       </c>
@@ -6566,7 +6537,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="1" customFormat="1">
+    <row r="13" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>201414012</v>
       </c>
@@ -6630,7 +6601,7 @@
       <c r="U13" s="6"/>
       <c r="AD13" s="3"/>
     </row>
-    <row r="14" spans="1:34" s="1" customFormat="1">
+    <row r="14" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>201414013</v>
       </c>
@@ -6684,7 +6655,7 @@
       <c r="U14" s="6"/>
       <c r="AD14" s="3"/>
     </row>
-    <row r="15" spans="1:34" s="1" customFormat="1">
+    <row r="15" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>201414014</v>
       </c>
@@ -6784,7 +6755,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:34" s="1" customFormat="1">
+    <row r="16" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>201414015</v>
       </c>
@@ -6844,7 +6815,7 @@
       <c r="AG16"/>
       <c r="AH16"/>
     </row>
-    <row r="17" spans="1:34" s="1" customFormat="1">
+    <row r="17" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>201414016</v>
       </c>
@@ -6909,7 +6880,7 @@
       <c r="Y17" s="10"/>
       <c r="AD17" s="3"/>
     </row>
-    <row r="18" spans="1:34" s="1" customFormat="1">
+    <row r="18" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>201414017</v>
       </c>
@@ -6976,7 +6947,7 @@
       <c r="AG18"/>
       <c r="AH18"/>
     </row>
-    <row r="19" spans="1:34" s="1" customFormat="1">
+    <row r="19" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>201414018</v>
       </c>
@@ -7078,7 +7049,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:34" s="1" customFormat="1">
+    <row r="20" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>201414019</v>
       </c>
@@ -7166,7 +7137,7 @@
       </c>
       <c r="AD20" s="3"/>
     </row>
-    <row r="21" spans="1:34" s="1" customFormat="1">
+    <row r="21" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>201414020</v>
       </c>
@@ -7214,7 +7185,7 @@
       <c r="U21"/>
       <c r="AD21" s="3"/>
     </row>
-    <row r="22" spans="1:34" s="1" customFormat="1">
+    <row r="22" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>201414021</v>
       </c>
@@ -7269,7 +7240,7 @@
       <c r="T22" s="3"/>
       <c r="AD22" s="3"/>
     </row>
-    <row r="23" spans="1:34" s="1" customFormat="1">
+    <row r="23" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>201414022</v>
       </c>
@@ -7331,7 +7302,7 @@
       <c r="U23"/>
       <c r="AD23" s="3"/>
     </row>
-    <row r="24" spans="1:34" s="1" customFormat="1">
+    <row r="24" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>201414023</v>
       </c>
@@ -7432,7 +7403,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:34" s="1" customFormat="1">
+    <row r="25" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>201414024</v>
       </c>
@@ -7529,7 +7500,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:34" s="1" customFormat="1">
+    <row r="26" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>201414025</v>
       </c>
@@ -7584,7 +7555,7 @@
       <c r="U26"/>
       <c r="AD26" s="3"/>
     </row>
-    <row r="27" spans="1:34" s="1" customFormat="1">
+    <row r="27" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>201414026</v>
       </c>
@@ -7640,7 +7611,7 @@
       <c r="U27"/>
       <c r="AD27" s="3"/>
     </row>
-    <row r="28" spans="1:34" s="1" customFormat="1">
+    <row r="28" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>201414027</v>
       </c>
@@ -7688,7 +7659,7 @@
       <c r="U28"/>
       <c r="AD28" s="3"/>
     </row>
-    <row r="29" spans="1:34" s="1" customFormat="1">
+    <row r="29" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>201414028</v>
       </c>
@@ -7781,7 +7752,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:34" s="1" customFormat="1">
+    <row r="30" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>201414029</v>
       </c>
@@ -7843,7 +7814,7 @@
       <c r="U30"/>
       <c r="AD30" s="3"/>
     </row>
-    <row r="31" spans="1:34" s="1" customFormat="1">
+    <row r="31" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>201414030</v>
       </c>
@@ -7899,7 +7870,7 @@
       <c r="U31"/>
       <c r="AD31" s="3"/>
     </row>
-    <row r="32" spans="1:34" s="1" customFormat="1">
+    <row r="32" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>201414031</v>
       </c>
@@ -8000,7 +7971,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:125" s="1" customFormat="1">
+    <row r="33" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>201414032</v>
       </c>
@@ -8044,7 +8015,7 @@
       <c r="U33"/>
       <c r="AD33" s="3"/>
     </row>
-    <row r="34" spans="1:125" s="1" customFormat="1">
+    <row r="34" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>201414033</v>
       </c>
@@ -8146,7 +8117,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:125" s="1" customFormat="1">
+    <row r="35" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>201414034</v>
       </c>
@@ -8188,7 +8159,7 @@
       <c r="U35"/>
       <c r="AD35" s="3"/>
     </row>
-    <row r="36" spans="1:125" s="1" customFormat="1">
+    <row r="36" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>201414035</v>
       </c>
@@ -8288,7 +8259,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:125" s="1" customFormat="1">
+    <row r="37" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>201414036</v>
       </c>
@@ -8384,7 +8355,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:125" s="30" customFormat="1" ht="14.25" customHeight="1">
+    <row r="38" spans="1:125" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>201414037</v>
       </c>
@@ -8549,7 +8520,7 @@
       <c r="DT38" s="1"/>
       <c r="DU38" s="1"/>
     </row>
-    <row r="39" spans="1:125" s="1" customFormat="1">
+    <row r="39" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>201414038</v>
       </c>
@@ -8650,7 +8621,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:125" s="1" customFormat="1">
+    <row r="40" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>201414039</v>
       </c>
@@ -8694,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:125" s="1" customFormat="1">
+    <row r="41" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>201414040</v>
       </c>
@@ -8798,7 +8769,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:125" s="1" customFormat="1">
+    <row r="42" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>201414041</v>
       </c>
@@ -8899,7 +8870,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:125" s="1" customFormat="1">
+    <row r="43" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>201414042</v>
       </c>
@@ -9001,7 +8972,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:125" s="1" customFormat="1">
+    <row r="44" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>201414043</v>
       </c>
@@ -9063,7 +9034,7 @@
       <c r="U44"/>
       <c r="AD44" s="3"/>
     </row>
-    <row r="45" spans="1:125" s="1" customFormat="1">
+    <row r="45" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>201414044</v>
       </c>
@@ -9119,7 +9090,7 @@
       <c r="U45"/>
       <c r="AD45" s="3"/>
     </row>
-    <row r="46" spans="1:125" s="1" customFormat="1">
+    <row r="46" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>201414045</v>
       </c>
@@ -9183,7 +9154,7 @@
       <c r="U46"/>
       <c r="AD46" s="3"/>
     </row>
-    <row r="47" spans="1:125" s="1" customFormat="1">
+    <row r="47" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>201414046</v>
       </c>
@@ -9246,7 +9217,7 @@
       </c>
       <c r="AD47" s="3"/>
     </row>
-    <row r="48" spans="1:125" s="1" customFormat="1">
+    <row r="48" spans="1:125" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>201414047</v>
       </c>
@@ -9350,7 +9321,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:34" s="1" customFormat="1">
+    <row r="49" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>201414048</v>
       </c>
@@ -9410,7 +9381,7 @@
       <c r="U49"/>
       <c r="AD49" s="3"/>
     </row>
-    <row r="50" spans="1:34" s="1" customFormat="1">
+    <row r="50" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>201414049</v>
       </c>
@@ -9512,7 +9483,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:34" s="1" customFormat="1">
+    <row r="51" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>201414050</v>
       </c>
@@ -9587,7 +9558,7 @@
       <c r="AG51"/>
       <c r="AH51"/>
     </row>
-    <row r="52" spans="1:34" s="1" customFormat="1">
+    <row r="52" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>201414051</v>
       </c>
@@ -9686,7 +9657,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:34" s="1" customFormat="1">
+    <row r="53" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>201414052</v>
       </c>
@@ -9787,7 +9758,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:34" s="1" customFormat="1">
+    <row r="54" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>201414053</v>
       </c>
@@ -9884,7 +9855,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:34" s="1" customFormat="1">
+    <row r="55" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>201414054</v>
       </c>
@@ -9957,7 +9928,7 @@
       <c r="AG55"/>
       <c r="AH55"/>
     </row>
-    <row r="56" spans="1:34" s="1" customFormat="1">
+    <row r="56" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>201414055</v>
       </c>
@@ -10026,7 +9997,7 @@
       <c r="AG56"/>
       <c r="AH56"/>
     </row>
-    <row r="57" spans="1:34" s="1" customFormat="1">
+    <row r="57" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>201414056</v>
       </c>
@@ -10125,7 +10096,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:34" s="1" customFormat="1">
+    <row r="58" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>201414057</v>
       </c>
@@ -10187,7 +10158,7 @@
       <c r="U58"/>
       <c r="AD58" s="3"/>
     </row>
-    <row r="59" spans="1:34" s="1" customFormat="1">
+    <row r="59" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>201414058</v>
       </c>
@@ -10247,7 +10218,7 @@
       <c r="U59"/>
       <c r="AD59" s="3"/>
     </row>
-    <row r="60" spans="1:34" s="1" customFormat="1">
+    <row r="60" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>201414059</v>
       </c>
@@ -10348,7 +10319,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:34" s="1" customFormat="1">
+    <row r="61" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>201414060</v>
       </c>
@@ -10449,7 +10420,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:34" s="1" customFormat="1">
+    <row r="62" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>201414061</v>
       </c>
@@ -10522,7 +10493,7 @@
       <c r="AG62"/>
       <c r="AH62"/>
     </row>
-    <row r="63" spans="1:34" s="1" customFormat="1">
+    <row r="63" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>201414062</v>
       </c>
@@ -10621,7 +10592,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:34" s="1" customFormat="1">
+    <row r="64" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>201414063</v>
       </c>
@@ -10683,7 +10654,7 @@
       <c r="U64"/>
       <c r="AD64" s="3"/>
     </row>
-    <row r="65" spans="1:34" s="1" customFormat="1">
+    <row r="65" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>201414064</v>
       </c>
@@ -10739,7 +10710,7 @@
       <c r="U65"/>
       <c r="AD65" s="3"/>
     </row>
-    <row r="66" spans="1:34" s="1" customFormat="1">
+    <row r="66" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>201414065</v>
       </c>
@@ -10799,7 +10770,7 @@
       <c r="U66"/>
       <c r="AD66" s="3"/>
     </row>
-    <row r="67" spans="1:34" s="1" customFormat="1">
+    <row r="67" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>201414066</v>
       </c>
@@ -10854,7 +10825,7 @@
       <c r="T67" s="3"/>
       <c r="U67"/>
     </row>
-    <row r="68" spans="1:34" s="1" customFormat="1">
+    <row r="68" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>201414067</v>
       </c>
@@ -10949,7 +10920,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:34" s="1" customFormat="1">
+    <row r="69" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>201414068</v>
       </c>
@@ -11005,7 +10976,7 @@
       <c r="U69"/>
       <c r="AD69" s="3"/>
     </row>
-    <row r="70" spans="1:34" s="1" customFormat="1">
+    <row r="70" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>201414069</v>
       </c>
@@ -11109,7 +11080,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:34" s="1" customFormat="1">
+    <row r="71" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>201414070</v>
       </c>
@@ -11165,7 +11136,7 @@
       <c r="U71"/>
       <c r="AD71" s="3"/>
     </row>
-    <row r="72" spans="1:34" s="1" customFormat="1">
+    <row r="72" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>201414071</v>
       </c>
@@ -11223,7 +11194,7 @@
       <c r="U72"/>
       <c r="AD72" s="3"/>
     </row>
-    <row r="73" spans="1:34" s="1" customFormat="1">
+    <row r="73" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>201414072</v>
       </c>
@@ -11323,7 +11294,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:34" s="1" customFormat="1">
+    <row r="74" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>201414073</v>
       </c>
@@ -11379,7 +11350,7 @@
       <c r="U74"/>
       <c r="AD74" s="3"/>
     </row>
-    <row r="75" spans="1:34" s="1" customFormat="1">
+    <row r="75" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>201414074</v>
       </c>
@@ -11435,7 +11406,7 @@
       <c r="U75"/>
       <c r="AD75" s="3"/>
     </row>
-    <row r="76" spans="1:34" s="13" customFormat="1">
+    <row r="76" spans="1:34" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>201414075</v>
       </c>
@@ -11487,7 +11458,7 @@
       <c r="Q76" s="7"/>
       <c r="U76"/>
     </row>
-    <row r="77" spans="1:34" s="13" customFormat="1">
+    <row r="77" spans="1:34" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>201414076</v>
       </c>
@@ -11585,7 +11556,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="1:34" s="13" customFormat="1">
+    <row r="78" spans="1:34" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>201414077</v>
       </c>
@@ -11637,7 +11608,7 @@
       <c r="Q78" s="7"/>
       <c r="U78"/>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>201414078</v>
       </c>
@@ -11700,7 +11671,7 @@
       <c r="AC79" s="13"/>
       <c r="AD79" s="13"/>
     </row>
-    <row r="80" spans="1:34" ht="14.25">
+    <row r="80" spans="1:34" ht="15" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>201414079</v>
       </c>
@@ -11751,7 +11722,7 @@
       </c>
       <c r="Q80" s="7"/>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>201414080</v>
       </c>
@@ -11802,7 +11773,7 @@
       </c>
       <c r="Q81" s="7"/>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>201414081</v>
       </c>
@@ -11853,7 +11824,7 @@
       </c>
       <c r="Q82" s="7"/>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>201414082</v>
       </c>
@@ -11904,7 +11875,7 @@
       </c>
       <c r="Q83" s="7"/>
     </row>
-    <row r="84" spans="1:34" s="1" customFormat="1" ht="14.25">
+    <row r="84" spans="1:34" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>201414083</v>
       </c>
@@ -11948,7 +11919,7 @@
       <c r="U84" s="6"/>
       <c r="AD84" s="3"/>
     </row>
-    <row r="85" spans="1:34" s="1" customFormat="1">
+    <row r="85" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>201414084</v>
       </c>
@@ -12019,7 +11990,7 @@
       <c r="AG85"/>
       <c r="AH85"/>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>201414085</v>
       </c>
@@ -12070,7 +12041,7 @@
       </c>
       <c r="Q86" s="7"/>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>201414086</v>
       </c>
@@ -12121,7 +12092,7 @@
       </c>
       <c r="Q87" s="7"/>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>201414087</v>
       </c>
@@ -12222,7 +12193,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:34" s="1" customFormat="1">
+    <row r="89" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>201413061</v>
       </c>
@@ -12312,7 +12283,7 @@
       </c>
       <c r="AD89" s="3"/>
     </row>
-    <row r="90" spans="1:34" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="90" spans="1:34" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>201413062</v>
       </c>
@@ -12385,7 +12356,7 @@
       </c>
       <c r="AD90" s="3"/>
     </row>
-    <row r="91" spans="1:34" s="1" customFormat="1">
+    <row r="91" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>201413063</v>
       </c>
@@ -12475,7 +12446,7 @@
       </c>
       <c r="AD91" s="3"/>
     </row>
-    <row r="92" spans="1:34" s="1" customFormat="1">
+    <row r="92" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>201413064</v>
       </c>
@@ -12537,7 +12508,7 @@
       <c r="U92" s="6"/>
       <c r="AD92" s="3"/>
     </row>
-    <row r="93" spans="1:34" s="1" customFormat="1">
+    <row r="93" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>201413065</v>
       </c>
@@ -12592,7 +12563,7 @@
       <c r="Z93" s="10"/>
       <c r="AD93" s="3"/>
     </row>
-    <row r="94" spans="1:34" s="1" customFormat="1">
+    <row r="94" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>201413066</v>
       </c>
@@ -12640,7 +12611,7 @@
       <c r="Z94" s="10"/>
       <c r="AD94" s="3"/>
     </row>
-    <row r="95" spans="1:34" s="1" customFormat="1" ht="14.25">
+    <row r="95" spans="1:34" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>201413067</v>
       </c>
@@ -12704,7 +12675,7 @@
       <c r="AC95" s="10"/>
       <c r="AD95" s="3"/>
     </row>
-    <row r="96" spans="1:34" s="1" customFormat="1" ht="14.25">
+    <row r="96" spans="1:34" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>201413068</v>
       </c>
@@ -12787,7 +12758,7 @@
       </c>
       <c r="AD96" s="3"/>
     </row>
-    <row r="97" spans="1:34" s="1" customFormat="1">
+    <row r="97" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>201413069</v>
       </c>
@@ -12868,7 +12839,7 @@
       </c>
       <c r="AD97" s="3"/>
     </row>
-    <row r="98" spans="1:34" s="1" customFormat="1">
+    <row r="98" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>201413070</v>
       </c>
@@ -12955,7 +12926,7 @@
       </c>
       <c r="AD98" s="3"/>
     </row>
-    <row r="99" spans="1:34" s="1" customFormat="1">
+    <row r="99" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>201413071</v>
       </c>
@@ -13011,7 +12982,7 @@
       <c r="U99"/>
       <c r="AD99" s="3"/>
     </row>
-    <row r="100" spans="1:34" s="1" customFormat="1">
+    <row r="100" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>201413072</v>
       </c>
@@ -13104,7 +13075,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="1:34" s="1" customFormat="1">
+    <row r="101" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>201413073</v>
       </c>
@@ -13150,7 +13121,7 @@
       <c r="U101"/>
       <c r="AD101" s="3"/>
     </row>
-    <row r="102" spans="1:34" s="1" customFormat="1">
+    <row r="102" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>201413074</v>
       </c>
@@ -13254,7 +13225,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="103" spans="1:34" s="1" customFormat="1">
+    <row r="103" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>201413075</v>
       </c>
@@ -13304,7 +13275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:34" s="1" customFormat="1">
+    <row r="104" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>201413076</v>
       </c>
@@ -13406,7 +13377,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="105" spans="1:34" s="1" customFormat="1">
+    <row r="105" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>201413077</v>
       </c>
@@ -13510,7 +13481,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="106" spans="1:34" s="1" customFormat="1">
+    <row r="106" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>201413078</v>
       </c>
@@ -13570,7 +13541,7 @@
       <c r="U106"/>
       <c r="AD106" s="3"/>
     </row>
-    <row r="107" spans="1:34" s="1" customFormat="1">
+    <row r="107" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>201413079</v>
       </c>
@@ -13674,7 +13645,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="108" spans="1:34" s="1" customFormat="1">
+    <row r="108" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>201413080</v>
       </c>
@@ -13739,7 +13710,7 @@
       <c r="AG108"/>
       <c r="AH108"/>
     </row>
-    <row r="109" spans="1:34" s="1" customFormat="1">
+    <row r="109" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>201413081</v>
       </c>
@@ -13795,7 +13766,7 @@
       <c r="U109"/>
       <c r="AD109" s="3"/>
     </row>
-    <row r="110" spans="1:34">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>201413082</v>
       </c>
@@ -13846,7 +13817,7 @@
       </c>
       <c r="Q110" s="7"/>
     </row>
-    <row r="111" spans="1:34">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>201413083</v>
       </c>
@@ -13897,7 +13868,7 @@
       </c>
       <c r="Q111" s="7"/>
     </row>
-    <row r="112" spans="1:34" s="31" customFormat="1">
+    <row r="112" spans="1:34" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="31">
         <v>201412016</v>
       </c>
@@ -13985,7 +13956,7 @@
       </c>
       <c r="AD112" s="32"/>
     </row>
-    <row r="113" spans="1:34" s="1" customFormat="1" ht="14.25">
+    <row r="113" spans="1:34" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>201412017</v>
       </c>
@@ -14047,7 +14018,7 @@
       <c r="AC113" s="10"/>
       <c r="AD113" s="3"/>
     </row>
-    <row r="114" spans="1:34">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>201412018</v>
       </c>
@@ -14142,7 +14113,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="115" spans="1:34" s="1" customFormat="1">
+    <row r="115" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>201412019</v>
       </c>
@@ -14238,7 +14209,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="116" spans="1:34" s="1" customFormat="1">
+    <row r="116" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>201412020</v>
       </c>
@@ -14294,7 +14265,7 @@
       <c r="U116"/>
       <c r="AD116" s="3"/>
     </row>
-    <row r="117" spans="1:34" s="1" customFormat="1">
+    <row r="117" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>201412021</v>
       </c>
@@ -14350,7 +14321,7 @@
       <c r="U117"/>
       <c r="AD117" s="3"/>
     </row>
-    <row r="118" spans="1:34" s="1" customFormat="1">
+    <row r="118" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>201412022</v>
       </c>
@@ -14406,7 +14377,7 @@
       <c r="U118"/>
       <c r="AD118" s="3"/>
     </row>
-    <row r="119" spans="1:34" s="1" customFormat="1">
+    <row r="119" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>201412023</v>
       </c>
@@ -14505,7 +14476,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="120" spans="1:34" s="1" customFormat="1">
+    <row r="120" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>201412024</v>
       </c>
@@ -14605,7 +14576,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="121" spans="1:34" s="1" customFormat="1" ht="15.75">
+    <row r="121" spans="1:34" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>201412025</v>
       </c>
@@ -14659,7 +14630,7 @@
       <c r="AD121" s="3"/>
       <c r="AH121" s="3"/>
     </row>
-    <row r="122" spans="1:34">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>201412026</v>
       </c>
@@ -14710,7 +14681,7 @@
       </c>
       <c r="Q122" s="7"/>
     </row>
-    <row r="123" spans="1:34" s="31" customFormat="1" ht="14.25">
+    <row r="123" spans="1:34" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A123" s="31">
         <v>201411007</v>
       </c>
@@ -14798,7 +14769,7 @@
       </c>
       <c r="AD123" s="32"/>
     </row>
-    <row r="124" spans="1:34" s="1" customFormat="1" ht="16.5" customHeight="1">
+    <row r="124" spans="1:34" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>201411008</v>
       </c>
@@ -14857,7 +14828,7 @@
       </c>
       <c r="AD124" s="3"/>
     </row>
-    <row r="125" spans="1:34" s="1" customFormat="1" ht="14.25">
+    <row r="125" spans="1:34" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>201411009</v>
       </c>
@@ -14947,7 +14918,7 @@
       </c>
       <c r="AD125" s="3"/>
     </row>
-    <row r="126" spans="1:34" s="1" customFormat="1">
+    <row r="126" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>201411010</v>
       </c>
@@ -15008,7 +14979,7 @@
       <c r="Z126" s="6"/>
       <c r="AD126" s="3"/>
     </row>
-    <row r="127" spans="1:34" s="1" customFormat="1">
+    <row r="127" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>201411011</v>
       </c>
@@ -15064,7 +15035,7 @@
       <c r="U127" s="6"/>
       <c r="AD127" s="3"/>
     </row>
-    <row r="128" spans="1:34" s="1" customFormat="1">
+    <row r="128" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>201411012</v>
       </c>
@@ -15116,7 +15087,7 @@
       <c r="U128"/>
       <c r="AD128" s="3"/>
     </row>
-    <row r="129" spans="1:34" s="1" customFormat="1">
+    <row r="129" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>201411013</v>
       </c>
@@ -15160,7 +15131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:34" s="1" customFormat="1">
+    <row r="130" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>201411014</v>
       </c>
@@ -15220,7 +15191,7 @@
       <c r="U130"/>
       <c r="AD130" s="3"/>
     </row>
-    <row r="131" spans="1:34" s="1" customFormat="1">
+    <row r="131" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>201411015</v>
       </c>
@@ -15319,7 +15290,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="132" spans="1:34" s="1" customFormat="1">
+    <row r="132" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>201411016</v>
       </c>
@@ -15386,7 +15357,7 @@
       <c r="AG132"/>
       <c r="AH132"/>
     </row>
-    <row r="133" spans="1:34" s="1" customFormat="1" ht="14.25">
+    <row r="133" spans="1:34" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>201411017</v>
       </c>
@@ -15483,7 +15454,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="134" spans="1:34" s="1" customFormat="1">
+    <row r="134" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>201411018</v>
       </c>
@@ -15539,7 +15510,7 @@
       <c r="U134"/>
       <c r="AD134" s="3"/>
     </row>
-    <row r="135" spans="1:34" s="31" customFormat="1" ht="15" customHeight="1">
+    <row r="135" spans="1:34" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="31">
         <v>201410004</v>
       </c>
@@ -15629,7 +15600,7 @@
       </c>
       <c r="AD135" s="32"/>
     </row>
-    <row r="136" spans="1:34" s="1" customFormat="1">
+    <row r="136" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>844</v>
       </c>
@@ -15717,7 +15688,7 @@
       </c>
       <c r="AD136" s="3"/>
     </row>
-    <row r="137" spans="1:34" s="1" customFormat="1" ht="18" customHeight="1">
+    <row r="137" spans="1:34" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
         <v>845</v>
       </c>
@@ -15807,7 +15778,7 @@
       </c>
       <c r="AD137" s="3"/>
     </row>
-    <row r="138" spans="1:34" s="1" customFormat="1">
+    <row r="138" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
         <v>846</v>
       </c>
@@ -15895,7 +15866,7 @@
       </c>
       <c r="AD138" s="3"/>
     </row>
-    <row r="139" spans="1:34" s="1" customFormat="1">
+    <row r="139" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
         <v>847</v>
       </c>
@@ -15940,7 +15911,7 @@
       <c r="AB139" s="10"/>
       <c r="AD139" s="3"/>
     </row>
-    <row r="140" spans="1:34" s="1" customFormat="1">
+    <row r="140" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
         <v>848</v>
       </c>
@@ -16000,7 +15971,7 @@
       <c r="U140" s="6"/>
       <c r="AD140" s="3"/>
     </row>
-    <row r="141" spans="1:34" s="1" customFormat="1">
+    <row r="141" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
         <v>849</v>
       </c>
@@ -16090,7 +16061,7 @@
       </c>
       <c r="AD141" s="3"/>
     </row>
-    <row r="142" spans="1:34" s="1" customFormat="1">
+    <row r="142" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>850</v>
       </c>
@@ -16146,7 +16117,7 @@
       <c r="Z142" s="10"/>
       <c r="AD142" s="3"/>
     </row>
-    <row r="143" spans="1:34" s="1" customFormat="1">
+    <row r="143" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
         <v>851</v>
       </c>
@@ -16226,7 +16197,7 @@
       </c>
       <c r="AD143" s="3"/>
     </row>
-    <row r="144" spans="1:34" s="1" customFormat="1">
+    <row r="144" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
         <v>852</v>
       </c>
@@ -16276,7 +16247,7 @@
       <c r="Z144" s="10"/>
       <c r="AD144" s="3"/>
     </row>
-    <row r="145" spans="1:34" s="1" customFormat="1">
+    <row r="145" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
         <v>853</v>
       </c>
@@ -16324,7 +16295,7 @@
       <c r="Z145" s="10"/>
       <c r="AD145" s="3"/>
     </row>
-    <row r="146" spans="1:34" s="1" customFormat="1">
+    <row r="146" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
         <v>854</v>
       </c>
@@ -16372,7 +16343,7 @@
       <c r="Z146" s="10"/>
       <c r="AD146" s="3"/>
     </row>
-    <row r="147" spans="1:34" s="1" customFormat="1">
+    <row r="147" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
         <v>855</v>
       </c>
@@ -16433,7 +16404,7 @@
       <c r="Z147" s="10"/>
       <c r="AD147" s="3"/>
     </row>
-    <row r="148" spans="1:34" s="1" customFormat="1">
+    <row r="148" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
         <v>856</v>
       </c>
@@ -16520,7 +16491,7 @@
       </c>
       <c r="AD148" s="3"/>
     </row>
-    <row r="149" spans="1:34" s="1" customFormat="1">
+    <row r="149" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
         <v>857</v>
       </c>
@@ -16553,7 +16524,7 @@
       <c r="R149" s="3"/>
       <c r="S149" s="3"/>
     </row>
-    <row r="150" spans="1:34" s="1" customFormat="1">
+    <row r="150" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
         <v>858</v>
       </c>
@@ -16647,7 +16618,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="151" spans="1:34" s="1" customFormat="1">
+    <row r="151" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
         <v>859</v>
       </c>
@@ -16697,7 +16668,7 @@
       <c r="AC151" s="10"/>
       <c r="AD151" s="3"/>
     </row>
-    <row r="152" spans="1:34" s="1" customFormat="1">
+    <row r="152" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
         <v>860</v>
       </c>
@@ -16732,7 +16703,7 @@
       <c r="R152" s="3"/>
       <c r="S152" s="3"/>
     </row>
-    <row r="153" spans="1:34" s="1" customFormat="1">
+    <row r="153" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
         <v>861</v>
       </c>
@@ -16787,7 +16758,7 @@
       <c r="AG153"/>
       <c r="AH153"/>
     </row>
-    <row r="154" spans="1:34" s="1" customFormat="1">
+    <row r="154" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
         <v>862</v>
       </c>
@@ -16840,7 +16811,7 @@
       <c r="AG154"/>
       <c r="AH154"/>
     </row>
-    <row r="155" spans="1:34" s="1" customFormat="1">
+    <row r="155" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
         <v>863</v>
       </c>
@@ -16893,7 +16864,7 @@
       <c r="AG155"/>
       <c r="AH155"/>
     </row>
-    <row r="156" spans="1:34" s="1" customFormat="1">
+    <row r="156" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
         <v>864</v>
       </c>
@@ -16946,7 +16917,7 @@
       <c r="AG156"/>
       <c r="AH156"/>
     </row>
-    <row r="157" spans="1:34" s="1" customFormat="1">
+    <row r="157" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
         <v>865</v>
       </c>
@@ -16999,7 +16970,7 @@
       <c r="AG157"/>
       <c r="AH157"/>
     </row>
-    <row r="158" spans="1:34" s="1" customFormat="1">
+    <row r="158" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
         <v>866</v>
       </c>
@@ -17052,7 +17023,7 @@
       <c r="AG158"/>
       <c r="AH158"/>
     </row>
-    <row r="159" spans="1:34" s="1" customFormat="1">
+    <row r="159" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
         <v>867</v>
       </c>
@@ -17105,7 +17076,7 @@
       <c r="AG159"/>
       <c r="AH159"/>
     </row>
-    <row r="160" spans="1:34" s="1" customFormat="1">
+    <row r="160" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
         <v>868</v>
       </c>
@@ -17158,7 +17129,7 @@
       <c r="AG160"/>
       <c r="AH160"/>
     </row>
-    <row r="161" spans="1:34" s="1" customFormat="1">
+    <row r="161" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
         <v>869</v>
       </c>
@@ -17213,7 +17184,7 @@
       <c r="AG161"/>
       <c r="AH161"/>
     </row>
-    <row r="162" spans="1:34" s="1" customFormat="1">
+    <row r="162" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
         <v>870</v>
       </c>
@@ -17314,7 +17285,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="163" spans="1:34" s="1" customFormat="1">
+    <row r="163" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
         <v>871</v>
       </c>
@@ -17358,7 +17329,7 @@
       <c r="U163"/>
       <c r="AD163" s="3"/>
     </row>
-    <row r="164" spans="1:34" s="1" customFormat="1">
+    <row r="164" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
         <v>872</v>
       </c>
@@ -17402,7 +17373,7 @@
       <c r="U164"/>
       <c r="AD164" s="3"/>
     </row>
-    <row r="165" spans="1:34" s="1" customFormat="1">
+    <row r="165" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
         <v>873</v>
       </c>
@@ -17445,7 +17416,7 @@
       <c r="U165"/>
       <c r="AD165" s="3"/>
     </row>
-    <row r="166" spans="1:34" s="1" customFormat="1">
+    <row r="166" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
         <v>874</v>
       </c>
@@ -17491,7 +17462,7 @@
       <c r="U166"/>
       <c r="AD166" s="3"/>
     </row>
-    <row r="167" spans="1:34" s="1" customFormat="1">
+    <row r="167" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
         <v>875</v>
       </c>
@@ -17535,7 +17506,7 @@
       <c r="U167"/>
       <c r="AD167" s="3"/>
     </row>
-    <row r="168" spans="1:34" s="1" customFormat="1">
+    <row r="168" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
         <v>876</v>
       </c>
@@ -17579,7 +17550,7 @@
       <c r="U168"/>
       <c r="AD168" s="3"/>
     </row>
-    <row r="169" spans="1:34" s="1" customFormat="1">
+    <row r="169" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
         <v>877</v>
       </c>
@@ -17635,7 +17606,7 @@
       <c r="U169"/>
       <c r="AD169" s="3"/>
     </row>
-    <row r="170" spans="1:34" s="1" customFormat="1">
+    <row r="170" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
         <v>878</v>
       </c>
@@ -17679,7 +17650,7 @@
       <c r="U170"/>
       <c r="AD170" s="3"/>
     </row>
-    <row r="171" spans="1:34" s="1" customFormat="1">
+    <row r="171" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
         <v>879</v>
       </c>
@@ -17734,7 +17705,7 @@
       <c r="X171" s="3"/>
       <c r="AD171" s="3"/>
     </row>
-    <row r="172" spans="1:34" s="1" customFormat="1">
+    <row r="172" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
         <v>880</v>
       </c>
@@ -17822,7 +17793,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="173" spans="1:34" s="1" customFormat="1">
+    <row r="173" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
         <v>881</v>
       </c>
@@ -17913,7 +17884,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="174" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1">
+    <row r="174" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
         <v>882</v>
       </c>
@@ -17951,7 +17922,7 @@
       <c r="U174"/>
       <c r="AD174" s="3"/>
     </row>
-    <row r="175" spans="1:34" s="1" customFormat="1">
+    <row r="175" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
         <v>883</v>
       </c>
@@ -17989,7 +17960,7 @@
       <c r="U175"/>
       <c r="AD175" s="3"/>
     </row>
-    <row r="176" spans="1:34" s="1" customFormat="1">
+    <row r="176" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
         <v>884</v>
       </c>
@@ -18027,7 +17998,7 @@
       <c r="U176"/>
       <c r="AD176" s="3"/>
     </row>
-    <row r="177" spans="1:34" s="1" customFormat="1">
+    <row r="177" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>885</v>
       </c>
@@ -18065,7 +18036,7 @@
       <c r="U177"/>
       <c r="AD177" s="3"/>
     </row>
-    <row r="178" spans="1:34" s="1" customFormat="1">
+    <row r="178" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
         <v>886</v>
       </c>
@@ -18107,7 +18078,7 @@
       <c r="U178"/>
       <c r="AD178" s="3"/>
     </row>
-    <row r="179" spans="1:34" s="1" customFormat="1">
+    <row r="179" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
         <v>887</v>
       </c>
@@ -18188,7 +18159,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="180" spans="1:34" s="1" customFormat="1">
+    <row r="180" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
         <v>888</v>
       </c>
@@ -18240,7 +18211,7 @@
       <c r="U180"/>
       <c r="AD180" s="3"/>
     </row>
-    <row r="181" spans="1:34" s="1" customFormat="1">
+    <row r="181" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
         <v>889</v>
       </c>
@@ -18296,7 +18267,7 @@
       <c r="U181"/>
       <c r="AD181" s="3"/>
     </row>
-    <row r="182" spans="1:34" s="1" customFormat="1">
+    <row r="182" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
         <v>890</v>
       </c>
@@ -18336,7 +18307,7 @@
       <c r="U182"/>
       <c r="AD182" s="3"/>
     </row>
-    <row r="183" spans="1:34" s="1" customFormat="1">
+    <row r="183" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
         <v>891</v>
       </c>
@@ -18392,7 +18363,7 @@
       <c r="U183"/>
       <c r="AD183" s="3"/>
     </row>
-    <row r="184" spans="1:34" s="1" customFormat="1">
+    <row r="184" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
         <v>892</v>
       </c>
@@ -18454,7 +18425,7 @@
       <c r="U184"/>
       <c r="AD184" s="3"/>
     </row>
-    <row r="185" spans="1:34" s="1" customFormat="1">
+    <row r="185" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
         <v>893</v>
       </c>
@@ -18516,7 +18487,7 @@
       <c r="U185"/>
       <c r="AD185" s="3"/>
     </row>
-    <row r="186" spans="1:34" s="1" customFormat="1">
+    <row r="186" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
         <v>894</v>
       </c>
@@ -18572,7 +18543,7 @@
       <c r="U186"/>
       <c r="AD186" s="3"/>
     </row>
-    <row r="187" spans="1:34" s="1" customFormat="1">
+    <row r="187" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
         <v>895</v>
       </c>
@@ -18610,7 +18581,7 @@
       <c r="U187"/>
       <c r="AD187" s="3"/>
     </row>
-    <row r="188" spans="1:34" s="1" customFormat="1">
+    <row r="188" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
         <v>896</v>
       </c>
@@ -18670,7 +18641,7 @@
       <c r="U188"/>
       <c r="AD188" s="3"/>
     </row>
-    <row r="189" spans="1:34" s="1" customFormat="1">
+    <row r="189" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
         <v>897</v>
       </c>
@@ -18730,7 +18701,7 @@
       <c r="U189"/>
       <c r="AD189" s="3"/>
     </row>
-    <row r="190" spans="1:34" s="1" customFormat="1">
+    <row r="190" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
         <v>898</v>
       </c>
@@ -18790,7 +18761,7 @@
       <c r="U190"/>
       <c r="AD190" s="3"/>
     </row>
-    <row r="191" spans="1:34" s="1" customFormat="1">
+    <row r="191" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
         <v>899</v>
       </c>
@@ -18832,7 +18803,7 @@
       </c>
       <c r="AD191" s="3"/>
     </row>
-    <row r="192" spans="1:34" s="1" customFormat="1">
+    <row r="192" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
         <v>900</v>
       </c>
@@ -18869,7 +18840,7 @@
       <c r="U192"/>
       <c r="AD192" s="3"/>
     </row>
-    <row r="193" spans="1:34" s="1" customFormat="1">
+    <row r="193" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
         <v>901</v>
       </c>
@@ -18906,7 +18877,7 @@
       <c r="U193"/>
       <c r="AD193" s="3"/>
     </row>
-    <row r="194" spans="1:34" s="1" customFormat="1">
+    <row r="194" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
         <v>902</v>
       </c>
@@ -18964,7 +18935,7 @@
       <c r="U194"/>
       <c r="AD194" s="3"/>
     </row>
-    <row r="195" spans="1:34" s="1" customFormat="1">
+    <row r="195" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
         <v>903</v>
       </c>
@@ -19010,7 +18981,7 @@
       <c r="U195"/>
       <c r="AD195" s="3"/>
     </row>
-    <row r="196" spans="1:34" s="1" customFormat="1">
+    <row r="196" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
         <v>904</v>
       </c>
@@ -19060,7 +19031,7 @@
       <c r="U196"/>
       <c r="AD196" s="3"/>
     </row>
-    <row r="197" spans="1:34" s="1" customFormat="1">
+    <row r="197" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
         <v>905</v>
       </c>
@@ -19097,7 +19068,7 @@
       <c r="U197"/>
       <c r="AD197" s="3"/>
     </row>
-    <row r="198" spans="1:34" s="1" customFormat="1">
+    <row r="198" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
         <v>906</v>
       </c>
@@ -19191,7 +19162,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="199" spans="1:34" s="1" customFormat="1">
+    <row r="199" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
         <v>907</v>
       </c>
@@ -19247,7 +19218,7 @@
       <c r="U199"/>
       <c r="AD199" s="3"/>
     </row>
-    <row r="200" spans="1:34" s="1" customFormat="1">
+    <row r="200" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
         <v>908</v>
       </c>
@@ -19344,7 +19315,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="201" spans="1:34" s="1" customFormat="1">
+    <row r="201" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
         <v>909</v>
       </c>
@@ -19441,7 +19412,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="202" spans="1:34" s="1" customFormat="1">
+    <row r="202" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
         <v>910</v>
       </c>
@@ -19512,7 +19483,7 @@
       <c r="AG202"/>
       <c r="AH202"/>
     </row>
-    <row r="203" spans="1:34" s="1" customFormat="1">
+    <row r="203" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
         <v>911</v>
       </c>
@@ -19577,7 +19548,7 @@
       <c r="AG203"/>
       <c r="AH203"/>
     </row>
-    <row r="204" spans="1:34" s="1" customFormat="1">
+    <row r="204" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
         <v>912</v>
       </c>
@@ -19644,7 +19615,7 @@
       <c r="AG204"/>
       <c r="AH204"/>
     </row>
-    <row r="205" spans="1:34" s="1" customFormat="1">
+    <row r="205" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
         <v>913</v>
       </c>
@@ -19719,7 +19690,7 @@
       <c r="AG205"/>
       <c r="AH205"/>
     </row>
-    <row r="206" spans="1:34" s="1" customFormat="1">
+    <row r="206" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
         <v>914</v>
       </c>
@@ -19775,7 +19746,7 @@
       <c r="U206"/>
       <c r="AD206" s="3"/>
     </row>
-    <row r="207" spans="1:34" s="1" customFormat="1">
+    <row r="207" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
         <v>915</v>
       </c>
@@ -19814,7 +19785,7 @@
       <c r="U207"/>
       <c r="AD207" s="3"/>
     </row>
-    <row r="208" spans="1:34" s="1" customFormat="1">
+    <row r="208" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
         <v>916</v>
       </c>
@@ -19862,7 +19833,7 @@
       <c r="U208"/>
       <c r="AD208" s="3"/>
     </row>
-    <row r="209" spans="1:30" s="13" customFormat="1">
+    <row r="209" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
         <v>917</v>
       </c>
@@ -19916,7 +19887,7 @@
       <c r="U209"/>
       <c r="AD209"/>
     </row>
-    <row r="210" spans="1:30" s="13" customFormat="1">
+    <row r="210" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
         <v>918</v>
       </c>
@@ -19982,7 +19953,7 @@
       <c r="AC210" s="1"/>
       <c r="AD210" s="3"/>
     </row>
-    <row r="211" spans="1:30">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
         <v>919</v>
       </c>
@@ -20034,9 +20005,7 @@
       <c r="Q211" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:DU211">
-    <filterColumn colId="11"/>
-  </autoFilter>
+  <autoFilter ref="A1:DU211"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U135:U149 U152 U2:U11 U112:U113 U89:U98 U84 U20 U13:U14 U123:U127">
@@ -20082,28 +20051,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="88" t="s">
         <v>920</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="83"/>
-    </row>
-    <row r="2" spans="1:3" ht="18.75">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A2" s="40" t="s">
         <v>921</v>
       </c>
@@ -20114,7 +20083,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" s="41" t="s">
         <v>923</v>
       </c>
@@ -20125,7 +20094,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="41" t="s">
         <v>925</v>
       </c>
@@ -20136,7 +20105,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A5" s="41" t="s">
         <v>952</v>
       </c>
@@ -20147,7 +20116,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" s="41" t="s">
         <v>927</v>
       </c>
@@ -20158,7 +20127,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" s="41" t="s">
         <v>929</v>
       </c>
@@ -20169,7 +20138,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="41" t="s">
         <v>932</v>
       </c>
@@ -20180,7 +20149,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A9" s="41" t="s">
         <v>933</v>
       </c>
@@ -20191,7 +20160,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75">
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A10" s="41" t="s">
         <v>934</v>
       </c>
@@ -20202,7 +20171,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75">
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A11" s="41" t="s">
         <v>936</v>
       </c>
@@ -20213,7 +20182,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75">
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A12" s="41" t="s">
         <v>938</v>
       </c>
@@ -20224,7 +20193,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.75">
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" s="42" t="s">
         <v>940</v>
       </c>
@@ -20235,7 +20204,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.75">
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A14" s="42" t="s">
         <v>948</v>
       </c>
@@ -20246,7 +20215,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18.75">
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A15" s="42" t="s">
         <v>949</v>
       </c>
@@ -20257,7 +20226,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.75">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" s="42" t="s">
         <v>950</v>
       </c>
@@ -20268,7 +20237,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A17" s="42" t="s">
         <v>951</v>
       </c>
@@ -20279,7 +20248,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" s="41" t="s">
         <v>930</v>
       </c>
@@ -20290,7 +20259,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" s="41" t="s">
         <v>953</v>
       </c>
@@ -20301,7 +20270,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75">
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" s="41" t="s">
         <v>959</v>
       </c>
@@ -20310,7 +20279,7 @@
       </c>
       <c r="C20" s="41"/>
     </row>
-    <row r="21" spans="1:4" ht="18.75">
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A21" s="42" t="s">
         <v>942</v>
       </c>
@@ -20321,7 +20290,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.75">
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A22" s="42" t="s">
         <v>943</v>
       </c>
@@ -20332,7 +20301,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75">
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A23" s="42" t="s">
         <v>944</v>
       </c>
@@ -20343,7 +20312,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.75">
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A24" s="42" t="s">
         <v>945</v>
       </c>
@@ -20354,7 +20323,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.75">
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A25" s="43"/>
       <c r="B25" s="43">
         <f>SUM(B3:B24)</f>
@@ -20368,28 +20337,28 @@
         <v>0.7332339791356185</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
     </row>
   </sheetData>
@@ -20403,19 +20372,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="63">
         <v>2013011614</v>
       </c>
@@ -20451,7 +20420,7 @@
       <c r="M1" s="67"/>
       <c r="N1" s="67"/>
     </row>
-    <row r="2" spans="1:16" ht="14.25" thickBot="1">
+    <row r="2" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="54">
         <v>2013011614</v>
       </c>
@@ -20492,7 +20461,7 @@
       <c r="N2" s="46"/>
       <c r="P2" s="49"/>
     </row>
-    <row r="3" spans="1:16" ht="14.25" thickBot="1">
+    <row r="3" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="54">
         <v>2013011614</v>
       </c>
@@ -20533,7 +20502,7 @@
       <c r="N3" s="46"/>
       <c r="P3" s="49"/>
     </row>
-    <row r="4" spans="1:16" ht="14.25" thickBot="1">
+    <row r="4" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="54">
         <v>2013011614</v>
       </c>
@@ -20574,7 +20543,7 @@
       <c r="N4" s="46"/>
       <c r="P4" s="49"/>
     </row>
-    <row r="5" spans="1:16" ht="14.25" thickBot="1">
+    <row r="5" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="54">
         <v>2013011614</v>
       </c>
@@ -20615,7 +20584,7 @@
       <c r="N5" s="46"/>
       <c r="P5" s="49"/>
     </row>
-    <row r="6" spans="1:16" ht="14.25" thickBot="1">
+    <row r="6" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="54">
         <v>2013011614</v>
       </c>
@@ -20656,7 +20625,7 @@
       <c r="N6" s="46"/>
       <c r="P6" s="49"/>
     </row>
-    <row r="7" spans="1:16" ht="14.25" thickBot="1">
+    <row r="7" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="54">
         <v>2013011614</v>
       </c>
@@ -20697,7 +20666,7 @@
       <c r="N7" s="46"/>
       <c r="P7" s="49"/>
     </row>
-    <row r="8" spans="1:16" ht="14.25" thickBot="1">
+    <row r="8" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="54">
         <v>2013011614</v>
       </c>
@@ -20738,7 +20707,7 @@
       <c r="N8" s="46"/>
       <c r="P8" s="49"/>
     </row>
-    <row r="9" spans="1:16" ht="14.25" thickBot="1">
+    <row r="9" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="54">
         <v>2013011614</v>
       </c>
@@ -20779,7 +20748,7 @@
       <c r="N9" s="46"/>
       <c r="P9" s="49"/>
     </row>
-    <row r="10" spans="1:16" ht="14.25" thickBot="1">
+    <row r="10" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="54">
         <v>2013011614</v>
       </c>
@@ -20820,7 +20789,7 @@
       <c r="N10" s="46"/>
       <c r="P10" s="49"/>
     </row>
-    <row r="11" spans="1:16" ht="14.25" thickBot="1">
+    <row r="11" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="56">
         <v>2013011614</v>
       </c>
@@ -20861,7 +20830,7 @@
       <c r="N11" s="59"/>
       <c r="P11" s="49"/>
     </row>
-    <row r="12" spans="1:16" ht="14.25" thickBot="1">
+    <row r="12" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="54">
         <v>2013011614</v>
       </c>
@@ -20902,7 +20871,7 @@
       <c r="N12" s="46"/>
       <c r="P12" s="49"/>
     </row>
-    <row r="13" spans="1:16" ht="14.25" thickBot="1">
+    <row r="13" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55">
         <v>2013011614</v>
       </c>
@@ -20943,7 +20912,7 @@
       <c r="N13" s="50"/>
       <c r="P13" s="49"/>
     </row>
-    <row r="14" spans="1:16" s="61" customFormat="1" ht="14.25" thickBot="1">
+    <row r="14" spans="1:16" s="61" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="56">
         <v>2013011614</v>
       </c>
@@ -20984,7 +20953,7 @@
       <c r="N14" s="59"/>
       <c r="P14" s="60"/>
     </row>
-    <row r="15" spans="1:16" ht="14.25" thickBot="1">
+    <row r="15" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54">
         <v>2013011614</v>
       </c>
@@ -21025,7 +20994,7 @@
       <c r="N15" s="46"/>
       <c r="P15" s="49"/>
     </row>
-    <row r="16" spans="1:16" ht="14.25" thickBot="1">
+    <row r="16" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54">
         <v>2013011614</v>
       </c>
@@ -21066,7 +21035,7 @@
       <c r="N16" s="46"/>
       <c r="P16" s="49"/>
     </row>
-    <row r="17" spans="1:16" ht="27.75" thickBot="1">
+    <row r="17" spans="1:16" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54">
         <v>2013011614</v>
       </c>
@@ -21107,7 +21076,7 @@
       <c r="N17" s="46"/>
       <c r="P17" s="49"/>
     </row>
-    <row r="18" spans="1:16" ht="14.25" thickBot="1">
+    <row r="18" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="54">
         <v>2013011614</v>
       </c>
@@ -21148,7 +21117,7 @@
       <c r="N18" s="46"/>
       <c r="P18" s="49"/>
     </row>
-    <row r="19" spans="1:16" ht="14.25" thickBot="1">
+    <row r="19" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="54">
         <v>2013011614</v>
       </c>
@@ -21189,7 +21158,7 @@
       <c r="N19" s="46"/>
       <c r="P19" s="49"/>
     </row>
-    <row r="20" spans="1:16" ht="14.25" thickBot="1">
+    <row r="20" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="54">
         <v>2013011614</v>
       </c>
@@ -21226,7 +21195,7 @@
       <c r="N20" s="46"/>
       <c r="P20" s="49"/>
     </row>
-    <row r="21" spans="1:16" ht="14.25" thickBot="1">
+    <row r="21" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54">
         <v>2013011614</v>
       </c>
@@ -21267,7 +21236,7 @@
       <c r="N21" s="46"/>
       <c r="P21" s="49"/>
     </row>
-    <row r="22" spans="1:16" s="61" customFormat="1" ht="14.25" thickBot="1">
+    <row r="22" spans="1:16" s="61" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="56">
         <v>2013011614</v>
       </c>
@@ -21308,7 +21277,7 @@
       <c r="N22" s="59"/>
       <c r="P22" s="60"/>
     </row>
-    <row r="23" spans="1:16" ht="14.25" thickBot="1">
+    <row r="23" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54">
         <v>2013011614</v>
       </c>
@@ -21349,7 +21318,7 @@
       <c r="N23" s="46"/>
       <c r="P23" s="49"/>
     </row>
-    <row r="24" spans="1:16" ht="14.25" thickBot="1">
+    <row r="24" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54">
         <v>2013011614</v>
       </c>
@@ -21390,7 +21359,7 @@
       <c r="N24" s="46"/>
       <c r="P24" s="49"/>
     </row>
-    <row r="25" spans="1:16" ht="14.25" thickBot="1">
+    <row r="25" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54">
         <v>2013011614</v>
       </c>
@@ -21427,7 +21396,7 @@
       <c r="N25" s="46"/>
       <c r="P25" s="49"/>
     </row>
-    <row r="26" spans="1:16" ht="14.25" thickBot="1">
+    <row r="26" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54">
         <v>2013011614</v>
       </c>
@@ -21472,7 +21441,7 @@
       </c>
       <c r="P26" s="49"/>
     </row>
-    <row r="27" spans="1:16" ht="14.25" thickBot="1">
+    <row r="27" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="54">
         <v>2013011614</v>
       </c>
@@ -21513,7 +21482,7 @@
       <c r="N27" s="46"/>
       <c r="P27" s="49"/>
     </row>
-    <row r="28" spans="1:16" ht="14.25" thickBot="1">
+    <row r="28" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="54">
         <v>2013011614</v>
       </c>
@@ -21554,7 +21523,7 @@
       <c r="N28" s="46"/>
       <c r="P28" s="49"/>
     </row>
-    <row r="29" spans="1:16" ht="14.25" thickBot="1">
+    <row r="29" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="54">
         <v>2013011614</v>
       </c>
@@ -21599,7 +21568,7 @@
       </c>
       <c r="P29" s="49"/>
     </row>
-    <row r="30" spans="1:16" s="61" customFormat="1" ht="14.25" thickBot="1">
+    <row r="30" spans="1:16" s="61" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="54">
         <v>2013011614</v>
       </c>
@@ -21640,7 +21609,7 @@
       <c r="N30" s="46"/>
       <c r="P30" s="60"/>
     </row>
-    <row r="31" spans="1:16" ht="14.25" thickBot="1">
+    <row r="31" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54">
         <v>2013011614</v>
       </c>
@@ -21681,7 +21650,7 @@
       <c r="N31" s="46"/>
       <c r="P31" s="49"/>
     </row>
-    <row r="32" spans="1:16" s="61" customFormat="1" ht="14.25" thickBot="1">
+    <row r="32" spans="1:16" s="61" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="56">
         <v>2013011614</v>
       </c>
@@ -21722,7 +21691,7 @@
       <c r="N32" s="59"/>
       <c r="P32" s="60"/>
     </row>
-    <row r="33" spans="1:16" ht="14.25" thickBot="1">
+    <row r="33" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54">
         <v>2013011614</v>
       </c>
@@ -21763,7 +21732,7 @@
       <c r="N33" s="46"/>
       <c r="P33" s="49"/>
     </row>
-    <row r="34" spans="1:16" ht="14.25" thickBot="1">
+    <row r="34" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54">
         <v>2013011614</v>
       </c>
@@ -21804,7 +21773,7 @@
       <c r="N34" s="46"/>
       <c r="P34" s="49"/>
     </row>
-    <row r="35" spans="1:16" ht="14.25" thickBot="1">
+    <row r="35" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54">
         <v>2013011614</v>
       </c>
@@ -21848,7 +21817,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="14.25" thickBot="1">
+    <row r="36" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="54">
         <v>2013011614</v>
       </c>
@@ -21888,7 +21857,7 @@
       <c r="M36" s="64"/>
       <c r="N36" s="64"/>
     </row>
-    <row r="37" spans="1:16" ht="14.25" thickBot="1">
+    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="62"/>
       <c r="B37" s="64"/>
       <c r="C37" s="64"/>
@@ -22203,24 +22172,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" s="79" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:166" s="79" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="80" t="s">
         <v>8</v>
       </c>
@@ -22398,7 +22367,7 @@
       <c r="FI1"/>
       <c r="FJ1"/>
     </row>
-    <row r="2" spans="1:166" ht="14.25">
+    <row r="2" spans="1:166" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="69" t="s">
         <v>370</v>
       </c>
@@ -22420,7 +22389,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="44"/>
     </row>
-    <row r="3" spans="1:166" ht="14.25">
+    <row r="3" spans="1:166" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="69" t="s">
         <v>730</v>
       </c>
@@ -22442,7 +22411,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="44"/>
     </row>
-    <row r="4" spans="1:166" ht="14.25">
+    <row r="4" spans="1:166" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="69" t="s">
         <v>960</v>
       </c>
@@ -22464,7 +22433,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="44"/>
     </row>
-    <row r="5" spans="1:166" ht="14.25">
+    <row r="5" spans="1:166" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="70" t="s">
         <v>272</v>
       </c>
@@ -22486,7 +22455,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="44"/>
     </row>
-    <row r="6" spans="1:166" ht="14.25">
+    <row r="6" spans="1:166" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="69" t="s">
         <v>784</v>
       </c>
@@ -22508,7 +22477,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="44"/>
     </row>
-    <row r="7" spans="1:166" ht="14.25">
+    <row r="7" spans="1:166" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="69" t="s">
         <v>738</v>
       </c>
@@ -22530,7 +22499,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="44"/>
     </row>
-    <row r="8" spans="1:166" ht="14.25">
+    <row r="8" spans="1:166" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="69" t="s">
         <v>961</v>
       </c>
@@ -22552,7 +22521,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="44"/>
     </row>
-    <row r="9" spans="1:166">
+    <row r="9" spans="1:166" x14ac:dyDescent="0.15">
       <c r="A9" s="69" t="s">
         <v>962</v>
       </c>
@@ -22572,7 +22541,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:166">
+    <row r="10" spans="1:166" x14ac:dyDescent="0.15">
       <c r="A10" s="69" t="s">
         <v>215</v>
       </c>
@@ -22592,7 +22561,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:166">
+    <row r="11" spans="1:166" x14ac:dyDescent="0.15">
       <c r="A11" s="69" t="s">
         <v>1051</v>
       </c>
@@ -22612,7 +22581,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:166">
+    <row r="12" spans="1:166" x14ac:dyDescent="0.15">
       <c r="A12" s="69" t="s">
         <v>785</v>
       </c>
@@ -22632,7 +22601,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:166">
+    <row r="13" spans="1:166" x14ac:dyDescent="0.15">
       <c r="A13" s="69" t="s">
         <v>492</v>
       </c>
@@ -22652,7 +22621,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:166">
+    <row r="14" spans="1:166" x14ac:dyDescent="0.15">
       <c r="A14" s="69" t="s">
         <v>493</v>
       </c>
@@ -22672,7 +22641,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:166">
+    <row r="15" spans="1:166" x14ac:dyDescent="0.15">
       <c r="A15" s="69" t="s">
         <v>1046</v>
       </c>
@@ -22692,7 +22661,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:166">
+    <row r="16" spans="1:166" x14ac:dyDescent="0.15">
       <c r="A16" s="69" t="s">
         <v>794</v>
       </c>
@@ -22712,7 +22681,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="69" t="s">
         <v>216</v>
       </c>
@@ -22732,7 +22701,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="69" t="s">
         <v>1047</v>
       </c>
@@ -22752,7 +22721,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="69" t="s">
         <v>393</v>
       </c>
@@ -22773,7 +22742,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="14.25">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="69" t="s">
         <v>292</v>
       </c>
@@ -22795,7 +22764,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="44"/>
     </row>
-    <row r="21" spans="1:9" ht="14.25">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="69" t="s">
         <v>209</v>
       </c>
@@ -22816,7 +22785,7 @@
       <c r="G21" s="1"/>
       <c r="I21" s="44"/>
     </row>
-    <row r="22" spans="1:9" ht="14.25">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="69" t="s">
         <v>1069</v>
       </c>
@@ -22837,7 +22806,7 @@
       <c r="G22" s="1"/>
       <c r="I22" s="44"/>
     </row>
-    <row r="23" spans="1:9" ht="14.25">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="69" t="s">
         <v>1070</v>
       </c>
@@ -22858,7 +22827,7 @@
       <c r="G23" s="1"/>
       <c r="I23" s="44"/>
     </row>
-    <row r="24" spans="1:9" ht="14.25">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="69" t="s">
         <v>1071</v>
       </c>
@@ -22879,7 +22848,7 @@
       <c r="G24" s="1"/>
       <c r="I24" s="44"/>
     </row>
-    <row r="25" spans="1:9" ht="14.25">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="69" t="s">
         <v>1072</v>
       </c>
@@ -22898,7 +22867,7 @@
       <c r="G25" s="1"/>
       <c r="I25" s="44"/>
     </row>
-    <row r="26" spans="1:9" ht="14.25">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="69"/>
       <c r="B26" s="69"/>
       <c r="C26" s="69"/>
@@ -22911,7 +22880,7 @@
       <c r="G26" s="1"/>
       <c r="I26" s="44"/>
     </row>
-    <row r="27" spans="1:9" ht="14.25">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="69"/>
       <c r="B27" s="69"/>
       <c r="C27" s="69"/>
@@ -22921,14 +22890,14 @@
       <c r="G27" s="1"/>
       <c r="I27" s="44"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="71"/>
       <c r="B28" s="71"/>
       <c r="C28" s="71"/>
       <c r="D28" s="71"/>
       <c r="E28" s="71"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="69" t="s">
         <v>923</v>
       </c>
@@ -22950,7 +22919,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="44"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="69" t="s">
         <v>450</v>
       </c>
@@ -22972,7 +22941,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="44"/>
     </row>
-    <row r="31" spans="1:9" ht="14.25">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="69" t="s">
         <v>1045</v>
       </c>
@@ -22994,7 +22963,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="44"/>
     </row>
-    <row r="32" spans="1:9" ht="14.25">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="69" t="s">
         <v>1073</v>
       </c>
@@ -23014,7 +22983,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="44"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="69" t="s">
         <v>207</v>
       </c>
@@ -23035,16 +23004,16 @@
       <c r="H33" s="1"/>
       <c r="I33" s="44"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
-      <c r="A34" s="89" t="s">
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A34" s="96" t="s">
         <v>1075</v>
       </c>
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="94" t="s">
         <v>1077</v>
       </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="84">
+      <c r="C34" s="95"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="91">
         <v>3600</v>
       </c>
       <c r="F34" s="1"/>
@@ -23052,14 +23021,14 @@
       <c r="H34" s="1"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" ht="14.25">
-      <c r="A35" s="90"/>
-      <c r="B35" s="87" t="s">
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A35" s="97"/>
+      <c r="B35" s="94" t="s">
         <v>1078</v>
       </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="85"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="92"/>
       <c r="F35" s="1">
         <f>(3600-800)*80%+800</f>
         <v>3040</v>
@@ -23068,31 +23037,31 @@
       <c r="H35" s="1"/>
       <c r="I35" s="44"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25">
-      <c r="A36" s="90"/>
-      <c r="B36" s="87" t="s">
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A36" s="97"/>
+      <c r="B36" s="94" t="s">
         <v>1079</v>
       </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="85"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="92"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="44"/>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="91"/>
-      <c r="B37" s="87" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="98"/>
+      <c r="B37" s="94" t="s">
         <v>1080</v>
       </c>
-      <c r="C37" s="88"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="86"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="93"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="74"/>
       <c r="B38" s="72"/>
       <c r="C38" s="73"/>
@@ -23103,14 +23072,14 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="89" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="B39" s="87" t="s">
+      <c r="B39" s="94" t="s">
         <v>1082</v>
       </c>
-      <c r="C39" s="88"/>
+      <c r="C39" s="95"/>
       <c r="D39" s="69"/>
       <c r="E39" s="69">
         <v>1500</v>
@@ -23118,32 +23087,32 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="90"/>
-      <c r="B40" s="87" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="97"/>
+      <c r="B40" s="94" t="s">
         <v>1083</v>
       </c>
-      <c r="C40" s="88"/>
+      <c r="C40" s="95"/>
       <c r="D40" s="69"/>
       <c r="E40" s="69"/>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="90"/>
-      <c r="B41" s="87" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="97"/>
+      <c r="B41" s="94" t="s">
         <v>1084</v>
       </c>
-      <c r="C41" s="88"/>
+      <c r="C41" s="95"/>
       <c r="D41" s="69"/>
       <c r="E41" s="69"/>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="91"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="88"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="98"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="95"/>
       <c r="D42" s="69"/>
       <c r="E42" s="69"/>
     </row>
-    <row r="43" spans="1:9" ht="24" customHeight="1">
+    <row r="43" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="69"/>
       <c r="B43" s="69"/>
       <c r="C43" s="69"/>

--- a/src/main/webapp/export/export_template.xlsx
+++ b/src/main/webapp/export/export_template.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14910" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -551,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
